--- a/documents/外部設計書_管理者トップページ.xlsx
+++ b/documents/外部設計書_管理者トップページ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A8DE59-114E-4181-BFBC-61EC8FABB85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88028D-4626-428C-AAB4-16DDAA35B729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -942,6 +942,60 @@
       <t>ケイシキ</t>
     </rPh>
     <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「7．公開範囲設定」の選択</t>
+    <rPh sb="3" eb="9">
+      <t>コウカイハンイセッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2．解決済み質問通知」のタブにて「3．タブ項目表示」をした場合に「7．公開範囲設定」が表示される。全体公開か個別公開かを選択する。</t>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="42">
+      <t>コウカイハンイセッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>ゼンタイコウカイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「1．質問通知」のタブにて「3．タブ項目表示」をした場合は「7．公開範囲設定」は表示されない。</t>
+    <rPh sb="3" eb="7">
+      <t>シツモンツウチ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>コウモクヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="38">
+      <t>コウカイハンイセッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1324,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1384,6 +1438,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,6 +1508,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,16 +1523,8 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1890,8 +1946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1176473" y="2030696"/>
-          <a:ext cx="2416080" cy="3391167"/>
+          <a:off x="1149922" y="2043141"/>
+          <a:ext cx="2362979" cy="3414814"/>
           <a:chOff x="1168909" y="2043933"/>
           <a:chExt cx="2400952" cy="3434564"/>
         </a:xfrm>
@@ -3196,8 +3252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3802740" y="2020124"/>
-          <a:ext cx="4907490" cy="2899996"/>
+          <a:off x="3716451" y="2032569"/>
+          <a:ext cx="4788013" cy="2919910"/>
           <a:chOff x="3778157" y="2044436"/>
           <a:chExt cx="4873453" cy="2938896"/>
         </a:xfrm>
@@ -3682,8 +3738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6302405" y="4998329"/>
-          <a:ext cx="2409343" cy="1475753"/>
+          <a:off x="6156377" y="5030688"/>
+          <a:ext cx="2349605" cy="1485709"/>
           <a:chOff x="6290919" y="5174786"/>
           <a:chExt cx="2404645" cy="1530047"/>
         </a:xfrm>
@@ -4624,8 +4680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3801729" y="4939368"/>
-          <a:ext cx="2409344" cy="1534714"/>
+          <a:off x="3715440" y="4971727"/>
+          <a:ext cx="2349605" cy="1544670"/>
           <a:chOff x="3794943" y="5115411"/>
           <a:chExt cx="2404644" cy="1589422"/>
         </a:xfrm>
@@ -5153,8 +5209,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4147358" y="2165405"/>
-          <a:ext cx="239889" cy="240299"/>
+          <a:off x="4054431" y="2179095"/>
+          <a:ext cx="233252" cy="241544"/>
           <a:chOff x="4244931" y="2206489"/>
           <a:chExt cx="295342" cy="294613"/>
         </a:xfrm>
@@ -5279,8 +5335,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4144350" y="5768482"/>
-          <a:ext cx="1759697" cy="282989"/>
+          <a:off x="4051423" y="5807064"/>
+          <a:ext cx="1713234" cy="284233"/>
           <a:chOff x="4101555" y="5912519"/>
           <a:chExt cx="1738299" cy="287635"/>
         </a:xfrm>
@@ -5454,8 +5510,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4141342" y="6111749"/>
-          <a:ext cx="1759697" cy="278342"/>
+          <a:off x="4048415" y="6151575"/>
+          <a:ext cx="1713234" cy="280831"/>
           <a:chOff x="4098547" y="6260432"/>
           <a:chExt cx="1738299" cy="287635"/>
         </a:xfrm>
@@ -5629,8 +5685,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4147358" y="5419836"/>
-          <a:ext cx="1759697" cy="282989"/>
+          <a:off x="4054431" y="5455928"/>
+          <a:ext cx="1713234" cy="284233"/>
           <a:chOff x="4104563" y="5554580"/>
           <a:chExt cx="1738299" cy="287635"/>
         </a:xfrm>
@@ -5804,8 +5860,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7222938" y="3114125"/>
-          <a:ext cx="1409767" cy="302215"/>
+          <a:off x="7056997" y="3134037"/>
+          <a:ext cx="1376579" cy="304705"/>
           <a:chOff x="7157056" y="3213598"/>
           <a:chExt cx="1396256" cy="314710"/>
         </a:xfrm>
@@ -6919,8 +6975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="AR84" sqref="AR84"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6929,152 +6985,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="47" t="s">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="49" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="39"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7284,7 +7340,7 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="50"/>
+      <c r="AG9" s="24"/>
       <c r="AH9" s="22" t="s">
         <v>22</v>
       </c>
@@ -8736,8 +8792,8 @@
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48" t="s">
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E44" s="9"/>
@@ -9345,10 +9401,9 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="10"/>
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -9389,9 +9444,8 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10" t="s">
-        <v>35</v>
+      <c r="D59" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -9433,9 +9487,8 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="8" t="s">
-        <v>66</v>
+      <c r="D60" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -9478,7 +9531,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="9"/>
@@ -9523,7 +9576,7 @@
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -9566,8 +9619,8 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="10" t="s">
-        <v>37</v>
+      <c r="D63" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -9610,7 +9663,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="9"/>
@@ -9652,8 +9705,9 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="D65" s="1" t="s">
-        <v>71</v>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -9694,8 +9748,9 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="D66" s="1" t="s">
-        <v>72</v>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -9737,8 +9792,9 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="10" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D67" s="10"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -9779,9 +9835,8 @@
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10" t="s">
-        <v>38</v>
+      <c r="D68" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -9823,9 +9878,8 @@
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10" t="s">
-        <v>75</v>
+      <c r="D69" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -9867,8 +9921,8 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="D70" s="10" t="s">
-        <v>74</v>
+      <c r="C70" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -9911,6 +9965,9 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -9952,6 +10009,9 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="10"/>
+      <c r="D72" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -9992,8 +10052,10 @@
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -10817,7 +10879,7 @@
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="51" t="s">
+      <c r="H90" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I90" s="18"/>
@@ -10867,7 +10929,7 @@
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="51" t="s">
+      <c r="H91" s="25" t="s">
         <v>56</v>
       </c>
       <c r="I91" s="18"/>
@@ -10917,7 +10979,7 @@
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="51" t="s">
+      <c r="H92" s="25" t="s">
         <v>57</v>
       </c>
       <c r="I92" s="18"/>
